--- a/CMExcel/bin/Debug/hahah.xlsx
+++ b/CMExcel/bin/Debug/hahah.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">属性3</t>
   </si>
   <si>
+    <t xml:space="preserve">属性4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -102,6 +105,159 @@
   </si>
   <si>
     <t xml:space="preserve">数值C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值A15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值C15</t>
   </si>
 </sst>
 </file>
@@ -167,90 +323,348 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/CMExcel/bin/Debug/hahah.xlsx
+++ b/CMExcel/bin/Debug/hahah.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -667,6 +667,686 @@
         <v>81</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
